--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H2">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I2">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J2">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.180361</v>
+        <v>0.07289133333333334</v>
       </c>
       <c r="N2">
-        <v>0.541083</v>
+        <v>0.218674</v>
       </c>
       <c r="O2">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="P2">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="Q2">
-        <v>0.4083812519636666</v>
+        <v>0.296209458854</v>
       </c>
       <c r="R2">
-        <v>3.675431267673</v>
+        <v>2.665885129686</v>
       </c>
       <c r="S2">
-        <v>0.03558679460675706</v>
+        <v>0.02614081138917361</v>
       </c>
       <c r="T2">
-        <v>0.03558679460675705</v>
+        <v>0.02614081138917362</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H3">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I3">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J3">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>1.969844</v>
       </c>
       <c r="O3">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="P3">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="Q3">
-        <v>1.486735600440445</v>
+        <v>2.668293556924</v>
       </c>
       <c r="R3">
-        <v>13.380620403964</v>
+        <v>24.014642012316</v>
       </c>
       <c r="S3">
-        <v>0.1295557868854737</v>
+        <v>0.2354798488622118</v>
       </c>
       <c r="T3">
-        <v>0.1295557868854736</v>
+        <v>0.2354798488622118</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.264243666666667</v>
+        <v>4.063713</v>
       </c>
       <c r="H4">
-        <v>6.792731</v>
+        <v>12.191139</v>
       </c>
       <c r="I4">
-        <v>0.4114976873616865</v>
+        <v>0.5065008440615062</v>
       </c>
       <c r="J4">
-        <v>0.4114976873616864</v>
+        <v>0.5065008440615063</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.248577</v>
+        <v>0.6828266666666667</v>
       </c>
       <c r="N4">
-        <v>3.745731</v>
+        <v>2.04848</v>
       </c>
       <c r="O4">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="P4">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="Q4">
-        <v>2.827082564595667</v>
+        <v>2.77481160208</v>
       </c>
       <c r="R4">
-        <v>25.443743081361</v>
+        <v>24.97330441872</v>
       </c>
       <c r="S4">
-        <v>0.2463551058694558</v>
+        <v>0.2448801838101208</v>
       </c>
       <c r="T4">
-        <v>0.2463551058694557</v>
+        <v>0.2448801838101209</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>6.267686</v>
       </c>
       <c r="I5">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J5">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.180361</v>
+        <v>0.07289133333333334</v>
       </c>
       <c r="N5">
-        <v>0.541083</v>
+        <v>0.218674</v>
       </c>
       <c r="O5">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="P5">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="Q5">
-        <v>0.3768153715486666</v>
+        <v>0.1522866631515556</v>
       </c>
       <c r="R5">
-        <v>3.391338343938</v>
+        <v>1.370579968364</v>
       </c>
       <c r="S5">
-        <v>0.03283610882598571</v>
+        <v>0.01343946595741087</v>
       </c>
       <c r="T5">
-        <v>0.03283610882598571</v>
+        <v>0.01343946595741088</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.267686</v>
       </c>
       <c r="I6">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J6">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,10 +809,10 @@
         <v>1.969844</v>
       </c>
       <c r="O6">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="P6">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="Q6">
         <v>1.371818184553778</v>
@@ -821,10 +821,10 @@
         <v>12.346363660984</v>
       </c>
       <c r="S6">
-        <v>0.1195417559860779</v>
+        <v>0.12106446756089</v>
       </c>
       <c r="T6">
-        <v>0.1195417559860779</v>
+        <v>0.12106446756089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,40 +853,40 @@
         <v>6.267686</v>
       </c>
       <c r="I7">
-        <v>0.3796909216792509</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="J7">
-        <v>0.3796909216792508</v>
+        <v>0.2604012840237886</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.248577</v>
+        <v>0.6828266666666667</v>
       </c>
       <c r="N7">
-        <v>3.745731</v>
+        <v>2.04848</v>
       </c>
       <c r="O7">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="P7">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="Q7">
-        <v>2.608562860940667</v>
+        <v>1.426581046364444</v>
       </c>
       <c r="R7">
-        <v>23.477065748466</v>
+        <v>12.83922941728</v>
       </c>
       <c r="S7">
-        <v>0.2273130568671873</v>
+        <v>0.1258973505054877</v>
       </c>
       <c r="T7">
-        <v>0.2273130568671872</v>
+        <v>0.1258973505054878</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H8">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I8">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J8">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.180361</v>
+        <v>0.07289133333333334</v>
       </c>
       <c r="N8">
-        <v>0.541083</v>
+        <v>0.218674</v>
       </c>
       <c r="O8">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="P8">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="Q8">
-        <v>0.1728638741926667</v>
+        <v>0.1157774109451111</v>
       </c>
       <c r="R8">
-        <v>1.555774867734</v>
+        <v>1.041996698506</v>
       </c>
       <c r="S8">
-        <v>0.01506354945591388</v>
+        <v>0.01021748418957393</v>
       </c>
       <c r="T8">
-        <v>0.01506354945591388</v>
+        <v>0.01021748418957393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H9">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I9">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J9">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>1.969844</v>
       </c>
       <c r="O9">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="P9">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="Q9">
-        <v>0.6293209459457777</v>
+        <v>1.042938064359556</v>
       </c>
       <c r="R9">
-        <v>5.663888513511999</v>
+        <v>9.386442579236</v>
       </c>
       <c r="S9">
-        <v>0.05483972424643765</v>
+        <v>0.09204043428083386</v>
       </c>
       <c r="T9">
-        <v>0.05483972424643765</v>
+        <v>0.09204043428083389</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9584326666666666</v>
+        <v>1.588356333333333</v>
       </c>
       <c r="H10">
-        <v>2.875298</v>
+        <v>4.765069</v>
       </c>
       <c r="I10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286506</v>
       </c>
       <c r="J10">
-        <v>0.1741830314604954</v>
+        <v>0.1979725988286507</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1.248577</v>
+        <v>0.6828266666666667</v>
       </c>
       <c r="N10">
-        <v>3.745731</v>
+        <v>2.04848</v>
       </c>
       <c r="O10">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="P10">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="Q10">
-        <v>1.196676983648667</v>
+        <v>1.084572060568889</v>
       </c>
       <c r="R10">
-        <v>10.770092852838</v>
+        <v>9.761148545119999</v>
       </c>
       <c r="S10">
-        <v>0.1042797577581439</v>
+        <v>0.09571468035824286</v>
       </c>
       <c r="T10">
-        <v>0.1042797577581439</v>
+        <v>0.09571468035824288</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,46 +1095,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H11">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I11">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J11">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.180361</v>
+        <v>0.07289133333333334</v>
       </c>
       <c r="N11">
-        <v>0.541083</v>
+        <v>0.218674</v>
       </c>
       <c r="O11">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="P11">
-        <v>0.0864811533569519</v>
+        <v>0.0516105978808581</v>
       </c>
       <c r="Q11">
-        <v>0.03436610518066666</v>
+        <v>0.020541798212</v>
       </c>
       <c r="R11">
-        <v>0.309294946626</v>
+        <v>0.184876183908</v>
       </c>
       <c r="S11">
-        <v>0.002994700468295253</v>
+        <v>0.00181283634469968</v>
       </c>
       <c r="T11">
-        <v>0.002994700468295253</v>
+        <v>0.001812836344699681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H12">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I12">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J12">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,22 +1181,22 @@
         <v>1.969844</v>
       </c>
       <c r="O12">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="P12">
-        <v>0.3148396476201832</v>
+        <v>0.4649150176610893</v>
       </c>
       <c r="Q12">
-        <v>0.1251117963297778</v>
+        <v>0.185043205672</v>
       </c>
       <c r="R12">
-        <v>1.126006166968</v>
+        <v>1.665388851048</v>
       </c>
       <c r="S12">
-        <v>0.01090238050219393</v>
+        <v>0.01633026695715356</v>
       </c>
       <c r="T12">
-        <v>0.01090238050219392</v>
+        <v>0.01633026695715356</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1905406666666667</v>
+        <v>0.281814</v>
       </c>
       <c r="H13">
-        <v>0.571622</v>
+        <v>0.845442</v>
       </c>
       <c r="I13">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605438</v>
       </c>
       <c r="J13">
-        <v>0.03462835949856721</v>
+        <v>0.03512527308605439</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.248577</v>
+        <v>0.6828266666666667</v>
       </c>
       <c r="N13">
-        <v>3.745731</v>
+        <v>2.04848</v>
       </c>
       <c r="O13">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="P13">
-        <v>0.5986791990228649</v>
+        <v>0.4834743844580526</v>
       </c>
       <c r="Q13">
-        <v>0.2379046939646667</v>
+        <v>0.19243011424</v>
       </c>
       <c r="R13">
-        <v>2.141142245682</v>
+        <v>1.73187102816</v>
       </c>
       <c r="S13">
-        <v>0.02073127852807803</v>
+        <v>0.01698216978420115</v>
       </c>
       <c r="T13">
-        <v>0.02073127852807803</v>
+        <v>0.01698216978420115</v>
       </c>
     </row>
   </sheetData>
